--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Documents\Skripts\Namenskärtchen 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D272A0-5729-4A66-9054-4A88AD4AF424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6993D3D5-4BB9-4934-B061-61E3F225F129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15750" yWindow="330" windowWidth="21780" windowHeight="16245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Jaël</t>
   </si>
   <si>
-    <t>Julia</t>
-  </si>
-  <si>
     <t>Nehir</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Tara</t>
+  </si>
+  <si>
+    <t>Julya</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,50 +421,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,47 +488,47 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
